--- a/Calculs/PH3/DataBase_PH3_FileA_MidStrip_V6.xlsx
+++ b/Calculs/PH3/DataBase_PH3_FileA_MidStrip_V6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133BB97A-5E29-4CF7-9B61-C907579B5F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D00A1C-3391-423C-BCA9-C500E0472599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -688,7 +688,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -700,9 +700,6 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1097,9 +1094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
   <dimension ref="A1:AQ80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y56" sqref="Y56"/>
+      <selection pane="topRight" activeCell="X2" sqref="X2:X53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1269,7 +1266,9 @@
       <c r="W2" s="6">
         <v>0</v>
       </c>
-      <c r="X2" s="4"/>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
       <c r="Y2" s="9">
         <f>IFERROR(IF(ISNUMBER(SEARCH("Appui",C2)),V2+X2*V2,IF(A1&lt;A2,V2-X3*V3/2,IF(A2&lt;A3,V2-(X1*V1)/2,V2-(X3*V3+X1*V1)/2))),0)</f>
         <v>0</v>
@@ -1303,7 +1302,7 @@
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f t="shared" ref="A3:A64" si="5">IF(B3=B2,A2,A2+1)</f>
+        <f t="shared" ref="A3:A53" si="5">IF(B3=B2,A2,A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1358,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V3" s="2">
         <v>57.756160000000001</v>
@@ -1372,34 +1371,34 @@
       <c r="W3" s="2">
         <v>17.543679999999998</v>
       </c>
-      <c r="X3" s="11"/>
+      <c r="X3" s="7">
+        <v>0</v>
+      </c>
       <c r="Y3" s="9">
-        <f t="shared" ref="Y3:Y64" si="6">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),V3+X3*V3,IF(A2&lt;A3,V3-X4*V4/2,IF(A3&lt;A4,V3-(X2*V2)/2,V3-(X4*V4+X2*V2)/2))),0)</f>
-        <v>57.756160000000001</v>
+        <v>43</v>
       </c>
       <c r="Z3" s="9">
-        <f t="shared" ref="Z3:Z64" si="7">IFERROR(IF(ISNUMBER(SEARCH("Appui",C3)),W3+X3*W3,IF(A2&lt;A3,W3-X4*W4/2,IF(A3&lt;A4,W3-(X2*W2)/2,W3-(X4*W4+X2*W2)/2))),0)</f>
-        <v>17.543679999999998</v>
+        <v>23.5</v>
       </c>
       <c r="AA3" s="3">
         <v>0</v>
       </c>
       <c r="AB3" s="9">
-        <f t="shared" ref="AB3:AB64" si="8">Y3*(1-AA3)</f>
-        <v>57.756160000000001</v>
+        <f t="shared" ref="AB3" si="6">Y3*(1-AA3)</f>
+        <v>43</v>
       </c>
       <c r="AC3" s="9">
-        <f t="shared" ref="AC3:AC64" si="9">Y3*AA3 + Z3</f>
-        <v>17.543679999999998</v>
+        <f t="shared" ref="AC3" si="7">Y3*AA3 + Z3</f>
+        <v>23.5</v>
       </c>
       <c r="AD3" s="8">
-        <f t="shared" ref="AD3:AD64" si="10">1.35*Y3+1.5*Z3</f>
-        <v>104.28633600000001</v>
+        <f t="shared" ref="AD3" si="8">1.35*Y3+1.5*Z3</f>
+        <v>93.300000000000011</v>
       </c>
       <c r="AE3" s="8"/>
       <c r="AF3" s="9">
-        <f t="shared" ref="AF3:AF64" si="11">AB3+AC3</f>
-        <v>75.299840000000003</v>
+        <f t="shared" ref="AF3" si="9">AB3+AC3</f>
+        <v>66.5</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
@@ -1467,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2">
         <v>41.899000000000001</v>
@@ -1475,34 +1474,34 @@
       <c r="W4" s="2">
         <v>12.726999999999999</v>
       </c>
-      <c r="X4" s="11"/>
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
       <c r="Y4" s="9">
-        <f t="shared" ref="Y4:Y53" si="12">IFERROR(IF(ISNUMBER(SEARCH("Appui",C4)),V4+X4*V4,IF(A3&lt;A4,V4-X5*V5/2,IF(A4&lt;A5,V4-(X3*V3)/2,V4-(X5*V5+X3*V3)/2))),0)</f>
-        <v>41.899000000000001</v>
+        <v>38</v>
       </c>
       <c r="Z4" s="9">
-        <f t="shared" ref="Z4:Z53" si="13">IFERROR(IF(ISNUMBER(SEARCH("Appui",C4)),W4+X4*W4,IF(A3&lt;A4,W4-X5*W5/2,IF(A4&lt;A5,W4-(X3*W3)/2,W4-(X5*W5+X3*W3)/2))),0)</f>
-        <v>12.726999999999999</v>
+        <v>21</v>
       </c>
       <c r="AA4" s="3">
         <v>0</v>
       </c>
       <c r="AB4" s="9">
-        <f t="shared" ref="AB4:AB53" si="14">Y4*(1-AA4)</f>
-        <v>41.899000000000001</v>
+        <f t="shared" ref="AB4:AB53" si="10">Y4*(1-AA4)</f>
+        <v>38</v>
       </c>
       <c r="AC4" s="9">
-        <f t="shared" ref="AC4:AC53" si="15">Y4*AA4 + Z4</f>
-        <v>12.726999999999999</v>
+        <f t="shared" ref="AC4:AC53" si="11">Y4*AA4 + Z4</f>
+        <v>21</v>
       </c>
       <c r="AD4" s="8">
-        <f t="shared" ref="AD4:AD53" si="16">1.35*Y4+1.5*Z4</f>
-        <v>75.654150000000001</v>
+        <f t="shared" ref="AD4:AD53" si="12">1.35*Y4+1.5*Z4</f>
+        <v>82.800000000000011</v>
       </c>
       <c r="AE4" s="8"/>
       <c r="AF4" s="9">
-        <f t="shared" ref="AF4:AF53" si="17">AB4+AC4</f>
-        <v>54.625999999999998</v>
+        <f t="shared" ref="AF4:AF53" si="13">AB4+AC4</f>
+        <v>59</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
@@ -1564,13 +1563,13 @@
         <v>1</v>
       </c>
       <c r="S5">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V5" s="2">
         <v>82.508800000000008</v>
@@ -1578,34 +1577,34 @@
       <c r="W5" s="2">
         <v>25.0624</v>
       </c>
-      <c r="X5" s="11"/>
+      <c r="X5" s="7">
+        <v>0</v>
+      </c>
       <c r="Y5" s="9">
+        <v>64</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="9">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="AC5" s="9">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="AD5" s="8">
         <f t="shared" si="12"/>
-        <v>82.508800000000008</v>
-      </c>
-      <c r="Z5" s="9">
-        <f t="shared" si="13"/>
-        <v>25.0624</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="9">
-        <f t="shared" si="14"/>
-        <v>82.508800000000008</v>
-      </c>
-      <c r="AC5" s="9">
-        <f t="shared" si="15"/>
-        <v>25.0624</v>
-      </c>
-      <c r="AD5" s="8">
-        <f t="shared" si="16"/>
-        <v>148.98048000000003</v>
+        <v>123.9</v>
       </c>
       <c r="AE5" s="8"/>
       <c r="AF5" s="9">
-        <f t="shared" si="17"/>
-        <v>107.5712</v>
+        <f t="shared" si="13"/>
+        <v>89</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
@@ -1673,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
         <v>41.899000000000001</v>
@@ -1681,34 +1680,34 @@
       <c r="W6" s="2">
         <v>12.726999999999999</v>
       </c>
-      <c r="X6" s="11"/>
+      <c r="X6" s="7">
+        <v>0</v>
+      </c>
       <c r="Y6" s="9">
+        <v>44</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>17</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="AC6" s="9">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="AD6" s="8">
         <f t="shared" si="12"/>
-        <v>41.899000000000001</v>
-      </c>
-      <c r="Z6" s="9">
-        <f t="shared" si="13"/>
-        <v>12.726999999999999</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <f t="shared" si="14"/>
-        <v>41.899000000000001</v>
-      </c>
-      <c r="AC6" s="9">
-        <f t="shared" si="15"/>
-        <v>12.726999999999999</v>
-      </c>
-      <c r="AD6" s="8">
-        <f t="shared" si="16"/>
-        <v>75.654150000000001</v>
+        <v>84.9</v>
       </c>
       <c r="AE6" s="8"/>
       <c r="AF6" s="9">
-        <f t="shared" si="17"/>
-        <v>54.625999999999998</v>
+        <f t="shared" si="13"/>
+        <v>61</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
@@ -1770,13 +1769,13 @@
         <v>1</v>
       </c>
       <c r="S7">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V7" s="2">
         <v>0.75007999999999997</v>
@@ -1784,34 +1783,34 @@
       <c r="W7" s="2">
         <v>0.22783999999999999</v>
       </c>
-      <c r="X7" s="11"/>
+      <c r="X7" s="7">
+        <v>0</v>
+      </c>
       <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <f t="shared" si="11"/>
+        <v>8.5</v>
+      </c>
+      <c r="AD7" s="8">
         <f t="shared" si="12"/>
-        <v>0.75007999999999997</v>
-      </c>
-      <c r="Z7" s="9">
-        <f t="shared" si="13"/>
-        <v>0.22783999999999999</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <f t="shared" si="14"/>
-        <v>0.75007999999999997</v>
-      </c>
-      <c r="AC7" s="9">
-        <f t="shared" si="15"/>
-        <v>0.22783999999999999</v>
-      </c>
-      <c r="AD7" s="8">
-        <f t="shared" si="16"/>
-        <v>1.354368</v>
+        <v>12.75</v>
       </c>
       <c r="AE7" s="8"/>
       <c r="AF7" s="9">
-        <f t="shared" si="17"/>
-        <v>0.9779199999999999</v>
+        <f t="shared" si="13"/>
+        <v>8.5</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
@@ -1879,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="2">
         <v>0.64460000000000006</v>
@@ -1887,34 +1886,34 @@
       <c r="W8">
         <v>0.1958</v>
       </c>
-      <c r="X8" s="11"/>
+      <c r="X8" s="7">
+        <v>0</v>
+      </c>
       <c r="Y8" s="9">
-        <f t="shared" si="12"/>
-        <v>0.64460000000000006</v>
+        <v>3</v>
       </c>
       <c r="Z8" s="9">
-        <f t="shared" si="13"/>
-        <v>0.1958</v>
+        <v>5</v>
       </c>
       <c r="AA8" s="3">
         <v>0.25</v>
       </c>
       <c r="AB8" s="9">
-        <f t="shared" si="14"/>
-        <v>0.48345000000000005</v>
+        <f t="shared" si="10"/>
+        <v>2.25</v>
       </c>
       <c r="AC8" s="9">
-        <f t="shared" si="15"/>
-        <v>0.35694999999999999</v>
+        <f t="shared" si="11"/>
+        <v>5.75</v>
       </c>
       <c r="AD8" s="8">
-        <f t="shared" si="16"/>
-        <v>1.1639100000000002</v>
+        <f t="shared" si="12"/>
+        <v>11.55</v>
       </c>
       <c r="AE8" s="8"/>
       <c r="AF8" s="9">
-        <f t="shared" si="17"/>
-        <v>0.84040000000000004</v>
+        <f t="shared" si="13"/>
+        <v>8</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
@@ -1976,13 +1975,13 @@
         <v>1</v>
       </c>
       <c r="S9">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V9" s="2">
         <v>0.75007999999999997</v>
@@ -1990,34 +1989,34 @@
       <c r="W9" s="2">
         <v>0.22783999999999999</v>
       </c>
-      <c r="X9" s="11"/>
+      <c r="X9" s="7">
+        <v>0</v>
+      </c>
       <c r="Y9" s="9">
-        <f t="shared" si="12"/>
-        <v>0.75007999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="9">
-        <f t="shared" si="13"/>
-        <v>0.22783999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" s="3">
         <v>0.5</v>
       </c>
       <c r="AB9" s="9">
-        <f t="shared" si="14"/>
-        <v>0.37503999999999998</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AC9" s="9">
-        <f t="shared" si="15"/>
-        <v>0.60287999999999997</v>
+        <f t="shared" si="11"/>
+        <v>8.5</v>
       </c>
       <c r="AD9" s="8">
-        <f t="shared" si="16"/>
-        <v>1.354368</v>
+        <f t="shared" si="12"/>
+        <v>12.75</v>
       </c>
       <c r="AE9" s="8"/>
       <c r="AF9" s="9">
-        <f t="shared" si="17"/>
-        <v>0.9779199999999999</v>
+        <f t="shared" si="13"/>
+        <v>8.5</v>
       </c>
       <c r="AP9" s="2"/>
     </row>
@@ -2084,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2">
         <v>36.917999999999999</v>
@@ -2092,34 +2091,34 @@
       <c r="W10">
         <v>11.213999999999999</v>
       </c>
-      <c r="X10" s="11"/>
+      <c r="X10" s="7">
+        <v>0</v>
+      </c>
       <c r="Y10" s="9">
-        <f t="shared" si="12"/>
-        <v>36.917999999999999</v>
+        <v>35</v>
       </c>
       <c r="Z10" s="9">
-        <f t="shared" si="13"/>
-        <v>11.213999999999999</v>
+        <v>15</v>
       </c>
       <c r="AA10" s="3">
         <v>0.5</v>
       </c>
       <c r="AB10" s="9">
-        <f t="shared" si="14"/>
-        <v>18.459</v>
+        <f t="shared" si="10"/>
+        <v>17.5</v>
       </c>
       <c r="AC10" s="9">
-        <f t="shared" si="15"/>
-        <v>29.672999999999998</v>
+        <f t="shared" si="11"/>
+        <v>32.5</v>
       </c>
       <c r="AD10" s="8">
-        <f t="shared" si="16"/>
-        <v>66.660300000000007</v>
+        <f t="shared" si="12"/>
+        <v>69.75</v>
       </c>
       <c r="AE10" s="8"/>
       <c r="AF10" s="9">
-        <f t="shared" si="17"/>
-        <v>48.131999999999998</v>
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
@@ -2181,13 +2180,13 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V11" s="2">
         <v>58.599999999999994</v>
@@ -2195,34 +2194,34 @@
       <c r="W11" s="2">
         <v>17.8</v>
       </c>
-      <c r="X11" s="11"/>
+      <c r="X11" s="7">
+        <v>0</v>
+      </c>
       <c r="Y11" s="9">
-        <f t="shared" si="12"/>
-        <v>58.599999999999994</v>
+        <v>58</v>
       </c>
       <c r="Z11" s="9">
-        <f t="shared" si="13"/>
-        <v>17.8</v>
+        <v>24.2</v>
       </c>
       <c r="AA11" s="3">
         <v>0.5</v>
       </c>
       <c r="AB11" s="9">
-        <f t="shared" si="14"/>
-        <v>29.299999999999997</v>
+        <f t="shared" si="10"/>
+        <v>29</v>
       </c>
       <c r="AC11" s="9">
-        <f t="shared" si="15"/>
-        <v>47.099999999999994</v>
+        <f t="shared" si="11"/>
+        <v>53.2</v>
       </c>
       <c r="AD11" s="8">
-        <f t="shared" si="16"/>
-        <v>105.81</v>
+        <f t="shared" si="12"/>
+        <v>114.60000000000001</v>
       </c>
       <c r="AE11" s="8"/>
       <c r="AF11" s="9">
-        <f t="shared" si="17"/>
-        <v>76.399999999999991</v>
+        <f t="shared" si="13"/>
+        <v>82.2</v>
       </c>
       <c r="AP11" s="2"/>
     </row>
@@ -2289,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" s="2">
         <v>29.299999999999997</v>
@@ -2297,34 +2296,34 @@
       <c r="W12" s="2">
         <v>8.9</v>
       </c>
-      <c r="X12" s="11"/>
+      <c r="X12" s="7">
+        <v>0</v>
+      </c>
       <c r="Y12" s="9">
-        <f t="shared" si="12"/>
-        <v>29.299999999999997</v>
+        <v>27</v>
       </c>
       <c r="Z12" s="9">
-        <f t="shared" si="13"/>
-        <v>8.9</v>
+        <v>18</v>
       </c>
       <c r="AA12" s="3">
         <v>0.5</v>
       </c>
       <c r="AB12" s="9">
-        <f t="shared" si="14"/>
-        <v>14.649999999999999</v>
+        <f t="shared" si="10"/>
+        <v>13.5</v>
       </c>
       <c r="AC12" s="9">
-        <f t="shared" si="15"/>
-        <v>23.549999999999997</v>
+        <f t="shared" si="11"/>
+        <v>31.5</v>
       </c>
       <c r="AD12" s="8">
-        <f t="shared" si="16"/>
-        <v>52.905000000000001</v>
+        <f t="shared" si="12"/>
+        <v>63.45</v>
       </c>
       <c r="AE12" s="8"/>
       <c r="AF12" s="9">
-        <f t="shared" si="17"/>
-        <v>38.199999999999996</v>
+        <f t="shared" si="13"/>
+        <v>45</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
@@ -2392,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="2">
         <v>49.809999999999995</v>
@@ -2400,34 +2399,34 @@
       <c r="W13">
         <v>15.129999999999999</v>
       </c>
-      <c r="X13" s="11"/>
+      <c r="X13" s="7">
+        <v>0</v>
+      </c>
       <c r="Y13" s="9">
-        <f t="shared" si="12"/>
-        <v>49.809999999999995</v>
+        <v>47</v>
       </c>
       <c r="Z13" s="9">
-        <f t="shared" si="13"/>
-        <v>15.129999999999999</v>
+        <v>24</v>
       </c>
       <c r="AA13" s="3">
         <v>0.5</v>
       </c>
       <c r="AB13" s="9">
-        <f t="shared" si="14"/>
-        <v>24.904999999999998</v>
+        <f t="shared" si="10"/>
+        <v>23.5</v>
       </c>
       <c r="AC13" s="9">
-        <f t="shared" si="15"/>
-        <v>40.034999999999997</v>
+        <f t="shared" si="11"/>
+        <v>47.5</v>
       </c>
       <c r="AD13" s="8">
-        <f t="shared" si="16"/>
-        <v>89.938500000000005</v>
+        <f t="shared" si="12"/>
+        <v>99.45</v>
       </c>
       <c r="AE13" s="8"/>
       <c r="AF13" s="9">
-        <f t="shared" si="17"/>
-        <v>64.94</v>
+        <f t="shared" si="13"/>
+        <v>71</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
@@ -2500,33 +2499,29 @@
       <c r="W14" s="6">
         <v>0</v>
       </c>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="9">
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="8">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE14" s="8"/>
       <c r="AF14" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP14" s="2"/>
@@ -2589,13 +2584,13 @@
         <v>1</v>
       </c>
       <c r="S15">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T15">
         <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V15" s="2">
         <v>41.019999999999996</v>
@@ -2603,34 +2598,34 @@
       <c r="W15" s="2">
         <v>12.459999999999999</v>
       </c>
-      <c r="X15" s="11"/>
+      <c r="X15" s="7">
+        <v>0</v>
+      </c>
       <c r="Y15" s="9">
+        <v>39</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>21</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="9">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="AC15" s="9">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="AD15" s="8">
         <f t="shared" si="12"/>
-        <v>41.019999999999996</v>
-      </c>
-      <c r="Z15" s="9">
-        <f t="shared" si="13"/>
-        <v>12.459999999999999</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="9">
-        <f t="shared" si="14"/>
-        <v>41.019999999999996</v>
-      </c>
-      <c r="AC15" s="9">
-        <f t="shared" si="15"/>
-        <v>12.459999999999999</v>
-      </c>
-      <c r="AD15" s="8">
-        <f t="shared" si="16"/>
-        <v>74.066999999999993</v>
+        <v>84.15</v>
       </c>
       <c r="AE15" s="8"/>
       <c r="AF15" s="9">
-        <f t="shared" si="17"/>
-        <v>53.48</v>
+        <f t="shared" si="13"/>
+        <v>60</v>
       </c>
       <c r="AP15" s="2"/>
     </row>
@@ -2697,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="2">
         <v>46.293999999999997</v>
@@ -2705,34 +2700,34 @@
       <c r="W16" s="2">
         <v>14.061999999999999</v>
       </c>
-      <c r="X16" s="11"/>
+      <c r="X16" s="7">
+        <v>0</v>
+      </c>
       <c r="Y16" s="9">
+        <v>45</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>22</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="9">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="AC16" s="9">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="AD16" s="8">
         <f t="shared" si="12"/>
-        <v>46.293999999999997</v>
-      </c>
-      <c r="Z16" s="9">
-        <f t="shared" si="13"/>
-        <v>14.061999999999999</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="9">
-        <f t="shared" si="14"/>
-        <v>46.293999999999997</v>
-      </c>
-      <c r="AC16" s="9">
-        <f t="shared" si="15"/>
-        <v>14.061999999999999</v>
-      </c>
-      <c r="AD16" s="8">
-        <f t="shared" si="16"/>
-        <v>83.5899</v>
+        <v>93.75</v>
       </c>
       <c r="AE16" s="8"/>
       <c r="AF16" s="9">
-        <f t="shared" si="17"/>
-        <v>60.355999999999995</v>
+        <f t="shared" si="13"/>
+        <v>67</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
@@ -2794,13 +2789,13 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V17" s="2">
         <v>92.587999999999994</v>
@@ -2808,34 +2803,34 @@
       <c r="W17" s="2">
         <v>28.123999999999999</v>
       </c>
-      <c r="X17" s="11"/>
+      <c r="X17" s="7">
+        <v>0</v>
+      </c>
       <c r="Y17" s="9">
+        <v>90</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>36</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="9">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="AC17" s="9">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="AD17" s="8">
         <f t="shared" si="12"/>
-        <v>92.587999999999994</v>
-      </c>
-      <c r="Z17" s="9">
-        <f t="shared" si="13"/>
-        <v>28.123999999999999</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="9">
-        <f t="shared" si="14"/>
-        <v>92.587999999999994</v>
-      </c>
-      <c r="AC17" s="9">
-        <f t="shared" si="15"/>
-        <v>28.123999999999999</v>
-      </c>
-      <c r="AD17" s="8">
-        <f t="shared" si="16"/>
-        <v>167.1798</v>
+        <v>175.5</v>
       </c>
       <c r="AE17" s="8"/>
       <c r="AF17" s="9">
-        <f t="shared" si="17"/>
-        <v>120.71199999999999</v>
+        <f t="shared" si="13"/>
+        <v>126</v>
       </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
@@ -2903,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="2">
         <v>41.019999999999996</v>
@@ -2911,34 +2906,34 @@
       <c r="W18">
         <v>12.459999999999999</v>
       </c>
-      <c r="X18" s="11"/>
+      <c r="X18" s="7">
+        <v>0</v>
+      </c>
       <c r="Y18" s="9">
+        <v>42</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>22</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="9">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="AC18" s="9">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="AD18" s="8">
         <f t="shared" si="12"/>
-        <v>41.019999999999996</v>
-      </c>
-      <c r="Z18" s="9">
-        <f t="shared" si="13"/>
-        <v>12.459999999999999</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="9">
-        <f t="shared" si="14"/>
-        <v>41.019999999999996</v>
-      </c>
-      <c r="AC18" s="9">
-        <f t="shared" si="15"/>
-        <v>12.459999999999999</v>
-      </c>
-      <c r="AD18" s="8">
-        <f t="shared" si="16"/>
-        <v>74.066999999999993</v>
+        <v>89.7</v>
       </c>
       <c r="AE18" s="8"/>
       <c r="AF18" s="9">
-        <f t="shared" si="17"/>
-        <v>53.48</v>
+        <f t="shared" si="13"/>
+        <v>64</v>
       </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
@@ -3006,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="2">
         <v>0</v>
@@ -3014,34 +3009,34 @@
       <c r="W19">
         <v>0</v>
       </c>
-      <c r="X19" s="12"/>
+      <c r="X19">
+        <v>0</v>
+      </c>
       <c r="Y19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>16</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="9">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AD19" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE19" s="8"/>
       <c r="AF19" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
@@ -3109,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="2">
         <v>0</v>
@@ -3117,34 +3112,34 @@
       <c r="W20">
         <v>0</v>
       </c>
-      <c r="X20" s="11"/>
+      <c r="X20" s="7">
+        <v>0</v>
+      </c>
       <c r="Y20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>11</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="9">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="AD20" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE20" s="8"/>
       <c r="AF20" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>11</v>
       </c>
       <c r="AP20" s="2"/>
     </row>
@@ -3211,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="2">
         <v>0</v>
@@ -3219,34 +3214,34 @@
       <c r="W21">
         <v>0</v>
       </c>
-      <c r="X21" s="11"/>
+      <c r="X21" s="7">
+        <v>0</v>
+      </c>
       <c r="Y21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="9">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="AD21" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE21" s="8"/>
       <c r="AF21" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>16</v>
       </c>
       <c r="AP21" s="2"/>
     </row>
@@ -3313,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="2">
         <v>39.262</v>
@@ -3321,34 +3316,34 @@
       <c r="W22">
         <v>11.926</v>
       </c>
-      <c r="X22" s="11"/>
+      <c r="X22" s="7">
+        <v>0</v>
+      </c>
       <c r="Y22" s="9">
+        <v>39</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>22</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="9">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="AC22" s="9">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="AD22" s="8">
         <f t="shared" si="12"/>
-        <v>39.262</v>
-      </c>
-      <c r="Z22" s="9">
-        <f t="shared" si="13"/>
-        <v>11.926</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="9">
-        <f t="shared" si="14"/>
-        <v>39.262</v>
-      </c>
-      <c r="AC22" s="9">
-        <f t="shared" si="15"/>
-        <v>11.926</v>
-      </c>
-      <c r="AD22" s="8">
-        <f t="shared" si="16"/>
-        <v>70.892700000000005</v>
+        <v>85.65</v>
       </c>
       <c r="AE22" s="8"/>
       <c r="AF22" s="9">
-        <f t="shared" si="17"/>
-        <v>51.188000000000002</v>
+        <f t="shared" si="13"/>
+        <v>61</v>
       </c>
       <c r="AP22" s="2"/>
     </row>
@@ -3409,13 +3404,13 @@
         <v>1</v>
       </c>
       <c r="S23">
-        <v>3.8400000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V23" s="2">
         <v>86.141999999999996</v>
@@ -3423,34 +3418,34 @@
       <c r="W23">
         <v>26.166</v>
       </c>
-      <c r="X23" s="11"/>
+      <c r="X23" s="7">
+        <v>0</v>
+      </c>
       <c r="Y23" s="9">
+        <v>85</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>35</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="9">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="AC23" s="9">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="AD23" s="8">
         <f t="shared" si="12"/>
-        <v>86.141999999999996</v>
-      </c>
-      <c r="Z23" s="9">
-        <f t="shared" si="13"/>
-        <v>26.166</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="9">
-        <f t="shared" si="14"/>
-        <v>86.141999999999996</v>
-      </c>
-      <c r="AC23" s="9">
-        <f t="shared" si="15"/>
-        <v>26.166</v>
-      </c>
-      <c r="AD23" s="8">
-        <f t="shared" si="16"/>
-        <v>155.54070000000002</v>
+        <v>167.25</v>
       </c>
       <c r="AE23" s="8"/>
       <c r="AF23" s="9">
-        <f t="shared" si="17"/>
-        <v>112.30799999999999</v>
+        <f t="shared" si="13"/>
+        <v>120</v>
       </c>
       <c r="AP23" s="2"/>
     </row>
@@ -3517,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" s="2">
         <v>41.019999999999996</v>
@@ -3525,34 +3520,34 @@
       <c r="W24">
         <v>12.459999999999999</v>
       </c>
-      <c r="X24" s="11"/>
+      <c r="X24" s="7">
+        <v>0</v>
+      </c>
       <c r="Y24" s="9">
+        <v>41</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>22</v>
+      </c>
+      <c r="AA24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="9">
+        <f t="shared" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="AC24" s="9">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="AD24" s="8">
         <f t="shared" si="12"/>
-        <v>41.019999999999996</v>
-      </c>
-      <c r="Z24" s="9">
-        <f t="shared" si="13"/>
-        <v>12.459999999999999</v>
-      </c>
-      <c r="AA24" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="9">
-        <f t="shared" si="14"/>
-        <v>41.019999999999996</v>
-      </c>
-      <c r="AC24" s="9">
-        <f t="shared" si="15"/>
-        <v>12.459999999999999</v>
-      </c>
-      <c r="AD24" s="8">
-        <f t="shared" si="16"/>
-        <v>74.066999999999993</v>
+        <v>88.35</v>
       </c>
       <c r="AE24" s="8"/>
       <c r="AF24" s="9">
-        <f t="shared" si="17"/>
-        <v>53.48</v>
+        <f t="shared" si="13"/>
+        <v>63</v>
       </c>
       <c r="AP24" s="2"/>
     </row>
@@ -3613,13 +3608,13 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T25">
         <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V25">
         <v>42.192</v>
@@ -3627,34 +3622,34 @@
       <c r="W25">
         <v>12.815999999999999</v>
       </c>
-      <c r="X25" s="11"/>
+      <c r="X25" s="7">
+        <v>0</v>
+      </c>
       <c r="Y25" s="9">
+        <v>39</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>23</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="9">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="AC25" s="9">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="AD25" s="8">
         <f t="shared" si="12"/>
-        <v>42.192</v>
-      </c>
-      <c r="Z25" s="9">
-        <f t="shared" si="13"/>
-        <v>12.815999999999999</v>
-      </c>
-      <c r="AA25" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="9">
-        <f t="shared" si="14"/>
-        <v>42.192</v>
-      </c>
-      <c r="AC25" s="9">
-        <f t="shared" si="15"/>
-        <v>12.815999999999999</v>
-      </c>
-      <c r="AD25" s="8">
-        <f t="shared" si="16"/>
-        <v>76.183199999999999</v>
+        <v>87.15</v>
       </c>
       <c r="AE25" s="8"/>
       <c r="AF25" s="9">
-        <f t="shared" si="17"/>
-        <v>55.007999999999996</v>
+        <f t="shared" si="13"/>
+        <v>62</v>
       </c>
       <c r="AP25" s="2"/>
     </row>
@@ -3726,33 +3721,29 @@
       <c r="W26" s="6">
         <v>0</v>
       </c>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="9">
+      <c r="X26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="8">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE26" s="8"/>
       <c r="AF26" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP26" s="2"/>
@@ -3814,13 +3805,13 @@
         <v>1</v>
       </c>
       <c r="S27">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V27">
         <v>38.089999999999996</v>
@@ -3828,34 +3819,34 @@
       <c r="W27">
         <v>11.57</v>
       </c>
-      <c r="X27" s="11"/>
+      <c r="X27" s="7">
+        <v>0</v>
+      </c>
       <c r="Y27" s="9">
+        <v>36</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="9">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="AC27" s="9">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AD27" s="8">
         <f t="shared" si="12"/>
-        <v>38.089999999999996</v>
-      </c>
-      <c r="Z27" s="9">
-        <f t="shared" si="13"/>
-        <v>11.57</v>
-      </c>
-      <c r="AA27" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="9">
-        <f t="shared" si="14"/>
-        <v>38.089999999999996</v>
-      </c>
-      <c r="AC27" s="9">
-        <f t="shared" si="15"/>
-        <v>11.57</v>
-      </c>
-      <c r="AD27" s="8">
-        <f t="shared" si="16"/>
-        <v>68.776499999999999</v>
+        <v>54.6</v>
       </c>
       <c r="AE27" s="8"/>
       <c r="AF27" s="9">
-        <f t="shared" si="17"/>
-        <v>49.66</v>
+        <f t="shared" si="13"/>
+        <v>40</v>
       </c>
       <c r="AP27" s="2"/>
     </row>
@@ -3922,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>52.739999999999995</v>
@@ -3930,34 +3921,34 @@
       <c r="W28">
         <v>16.02</v>
       </c>
-      <c r="X28" s="11"/>
+      <c r="X28" s="7">
+        <v>0</v>
+      </c>
       <c r="Y28" s="9">
+        <v>52</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="9">
+        <f t="shared" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="AC28" s="9">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="AD28" s="8">
         <f t="shared" si="12"/>
-        <v>52.739999999999995</v>
-      </c>
-      <c r="Z28" s="9">
-        <f t="shared" si="13"/>
-        <v>16.02</v>
-      </c>
-      <c r="AA28" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="9">
-        <f t="shared" si="14"/>
-        <v>52.739999999999995</v>
-      </c>
-      <c r="AC28" s="9">
-        <f t="shared" si="15"/>
-        <v>16.02</v>
-      </c>
-      <c r="AD28" s="8">
-        <f t="shared" si="16"/>
-        <v>95.228999999999999</v>
+        <v>107.7</v>
       </c>
       <c r="AE28" s="8"/>
       <c r="AF28" s="9">
-        <f t="shared" si="17"/>
-        <v>68.759999999999991</v>
+        <f t="shared" si="13"/>
+        <v>77</v>
       </c>
       <c r="AP28" s="2"/>
     </row>
@@ -4018,13 +4009,13 @@
         <v>1</v>
       </c>
       <c r="S29">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T29">
         <v>0</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V29">
         <v>100.79199999999999</v>
@@ -4032,34 +4023,34 @@
       <c r="W29">
         <v>30.616</v>
       </c>
-      <c r="X29" s="11"/>
+      <c r="X29" s="7">
+        <v>0</v>
+      </c>
       <c r="Y29" s="9">
+        <v>100</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>39</v>
+      </c>
+      <c r="AA29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="9">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="AC29" s="9">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="AD29" s="8">
         <f t="shared" si="12"/>
-        <v>100.79199999999999</v>
-      </c>
-      <c r="Z29" s="9">
-        <f t="shared" si="13"/>
-        <v>30.616</v>
-      </c>
-      <c r="AA29" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="9">
-        <f t="shared" si="14"/>
-        <v>100.79199999999999</v>
-      </c>
-      <c r="AC29" s="9">
-        <f t="shared" si="15"/>
-        <v>30.616</v>
-      </c>
-      <c r="AD29" s="8">
-        <f t="shared" si="16"/>
-        <v>181.9932</v>
+        <v>193.5</v>
       </c>
       <c r="AE29" s="8"/>
       <c r="AF29" s="9">
-        <f t="shared" si="17"/>
-        <v>131.40799999999999</v>
+        <f t="shared" si="13"/>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.35">
@@ -4125,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>49.223999999999997</v>
@@ -4133,34 +4124,34 @@
       <c r="W30">
         <v>14.952</v>
       </c>
-      <c r="X30" s="12"/>
+      <c r="X30">
+        <v>0</v>
+      </c>
       <c r="Y30" s="9">
+        <v>50</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="9">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="AC30" s="9">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="AD30" s="8">
         <f t="shared" si="12"/>
-        <v>49.223999999999997</v>
-      </c>
-      <c r="Z30" s="9">
-        <f t="shared" si="13"/>
-        <v>14.952</v>
-      </c>
-      <c r="AA30" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="9">
-        <f t="shared" si="14"/>
-        <v>49.223999999999997</v>
-      </c>
-      <c r="AC30" s="9">
-        <f t="shared" si="15"/>
-        <v>14.952</v>
-      </c>
-      <c r="AD30" s="8">
-        <f t="shared" si="16"/>
-        <v>88.880399999999995</v>
+        <v>105</v>
       </c>
       <c r="AE30" s="8"/>
       <c r="AF30" s="9">
-        <f t="shared" si="17"/>
-        <v>64.176000000000002</v>
+        <f t="shared" si="13"/>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.35">
@@ -4226,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -4234,34 +4225,34 @@
       <c r="W31">
         <v>0</v>
       </c>
-      <c r="X31" s="11"/>
+      <c r="X31" s="7">
+        <v>0</v>
+      </c>
       <c r="Y31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>14</v>
+      </c>
+      <c r="AA31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="9">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AD31" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE31" s="8"/>
       <c r="AF31" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.35">
@@ -4327,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -4335,34 +4326,34 @@
       <c r="W32">
         <v>0</v>
       </c>
-      <c r="X32" s="11"/>
+      <c r="X32" s="7">
+        <v>0</v>
+      </c>
       <c r="Y32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="9">
+        <v>12</v>
+      </c>
+      <c r="AA32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="9">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="AD32" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE32" s="8"/>
       <c r="AF32" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
@@ -4428,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -4436,34 +4427,34 @@
       <c r="W33">
         <v>0</v>
       </c>
-      <c r="X33" s="11"/>
+      <c r="X33" s="7">
+        <v>0</v>
+      </c>
       <c r="Y33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>14</v>
+      </c>
+      <c r="AA33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="9">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AD33" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE33" s="8"/>
       <c r="AF33" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
@@ -4529,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>41.019999999999996</v>
@@ -4537,34 +4528,34 @@
       <c r="W34">
         <v>12.459999999999999</v>
       </c>
-      <c r="X34" s="11"/>
+      <c r="X34" s="7">
+        <v>0</v>
+      </c>
       <c r="Y34" s="9">
+        <v>40</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>23</v>
+      </c>
+      <c r="AA34" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="9">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="AC34" s="9">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="AD34" s="8">
         <f t="shared" si="12"/>
-        <v>41.019999999999996</v>
-      </c>
-      <c r="Z34" s="9">
-        <f t="shared" si="13"/>
-        <v>12.459999999999999</v>
-      </c>
-      <c r="AA34" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="9">
-        <f t="shared" si="14"/>
-        <v>41.019999999999996</v>
-      </c>
-      <c r="AC34" s="9">
-        <f t="shared" si="15"/>
-        <v>12.459999999999999</v>
-      </c>
-      <c r="AD34" s="8">
-        <f t="shared" si="16"/>
-        <v>74.066999999999993</v>
+        <v>88.5</v>
       </c>
       <c r="AE34" s="8"/>
       <c r="AF34" s="9">
-        <f t="shared" si="17"/>
-        <v>53.48</v>
+        <f t="shared" si="13"/>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
@@ -4624,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="S35">
-        <v>3.8400000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T35">
         <v>0</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V35">
         <v>86.141999999999996</v>
@@ -4638,34 +4629,34 @@
       <c r="W35">
         <v>26.166</v>
       </c>
-      <c r="X35" s="11"/>
+      <c r="X35" s="7">
+        <v>0</v>
+      </c>
       <c r="Y35" s="9">
+        <v>85</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>35</v>
+      </c>
+      <c r="AA35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="9">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="AC35" s="9">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="AD35" s="8">
         <f t="shared" si="12"/>
-        <v>86.141999999999996</v>
-      </c>
-      <c r="Z35" s="9">
-        <f t="shared" si="13"/>
-        <v>26.166</v>
-      </c>
-      <c r="AA35" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="9">
-        <f t="shared" si="14"/>
-        <v>86.141999999999996</v>
-      </c>
-      <c r="AC35" s="9">
-        <f t="shared" si="15"/>
-        <v>26.166</v>
-      </c>
-      <c r="AD35" s="8">
-        <f t="shared" si="16"/>
-        <v>155.54070000000002</v>
+        <v>167.25</v>
       </c>
       <c r="AE35" s="8"/>
       <c r="AF35" s="9">
-        <f t="shared" si="17"/>
-        <v>112.30799999999999</v>
+        <f t="shared" si="13"/>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
@@ -4731,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>38.089999999999996</v>
@@ -4739,34 +4730,34 @@
       <c r="W36">
         <v>11.57</v>
       </c>
-      <c r="X36" s="11"/>
+      <c r="X36" s="7">
+        <v>0</v>
+      </c>
       <c r="Y36" s="9">
+        <v>37</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>22</v>
+      </c>
+      <c r="AA36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="9">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="AC36" s="9">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="AD36" s="8">
         <f t="shared" si="12"/>
-        <v>38.089999999999996</v>
-      </c>
-      <c r="Z36" s="9">
-        <f t="shared" si="13"/>
-        <v>11.57</v>
-      </c>
-      <c r="AA36" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="9">
-        <f t="shared" si="14"/>
-        <v>38.089999999999996</v>
-      </c>
-      <c r="AC36" s="9">
-        <f t="shared" si="15"/>
-        <v>11.57</v>
-      </c>
-      <c r="AD36" s="8">
-        <f t="shared" si="16"/>
-        <v>68.776499999999999</v>
+        <v>82.95</v>
       </c>
       <c r="AE36" s="8"/>
       <c r="AF36" s="9">
-        <f t="shared" si="17"/>
-        <v>49.66</v>
+        <f t="shared" si="13"/>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
@@ -4832,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
         <v>42.777999999999999</v>
@@ -4840,34 +4831,34 @@
       <c r="W37">
         <v>12.994</v>
       </c>
-      <c r="X37" s="11"/>
+      <c r="X37" s="7">
+        <v>0</v>
+      </c>
       <c r="Y37" s="9">
+        <v>40</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>23</v>
+      </c>
+      <c r="AA37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="9">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="AC37" s="9">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="AD37" s="8">
         <f t="shared" si="12"/>
-        <v>42.777999999999999</v>
-      </c>
-      <c r="Z37" s="9">
-        <f t="shared" si="13"/>
-        <v>12.994</v>
-      </c>
-      <c r="AA37" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="9">
-        <f t="shared" si="14"/>
-        <v>42.777999999999999</v>
-      </c>
-      <c r="AC37" s="9">
-        <f t="shared" si="15"/>
-        <v>12.994</v>
-      </c>
-      <c r="AD37" s="8">
-        <f t="shared" si="16"/>
-        <v>77.241299999999995</v>
+        <v>88.5</v>
       </c>
       <c r="AE37" s="8"/>
       <c r="AF37" s="9">
-        <f t="shared" si="17"/>
-        <v>55.771999999999998</v>
+        <f t="shared" si="13"/>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
@@ -4938,33 +4929,29 @@
       <c r="W38" s="6">
         <v>0</v>
       </c>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="9">
+      <c r="X38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z38" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD38" s="8">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE38" s="8"/>
       <c r="AF38" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -5025,13 +5012,13 @@
         <v>1</v>
       </c>
       <c r="S39">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
       <c r="U39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V39">
         <v>41.019999999999996</v>
@@ -5039,34 +5026,34 @@
       <c r="W39">
         <v>12.459999999999999</v>
       </c>
-      <c r="X39" s="11"/>
+      <c r="X39" s="7">
+        <v>0</v>
+      </c>
       <c r="Y39" s="9">
+        <v>39</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>21</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="9">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="AC39" s="9">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="AD39" s="8">
         <f t="shared" si="12"/>
-        <v>41.019999999999996</v>
-      </c>
-      <c r="Z39" s="9">
-        <f t="shared" si="13"/>
-        <v>12.459999999999999</v>
-      </c>
-      <c r="AA39" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="9">
-        <f t="shared" si="14"/>
-        <v>41.019999999999996</v>
-      </c>
-      <c r="AC39" s="9">
-        <f t="shared" si="15"/>
-        <v>12.459999999999999</v>
-      </c>
-      <c r="AD39" s="8">
-        <f t="shared" si="16"/>
-        <v>74.066999999999993</v>
+        <v>84.15</v>
       </c>
       <c r="AE39" s="8"/>
       <c r="AF39" s="9">
-        <f t="shared" si="17"/>
-        <v>53.48</v>
+        <f t="shared" si="13"/>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
@@ -5132,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
         <v>45.122</v>
@@ -5140,34 +5127,34 @@
       <c r="W40">
         <v>13.706</v>
       </c>
-      <c r="X40" s="11"/>
+      <c r="X40" s="7">
+        <v>0</v>
+      </c>
       <c r="Y40" s="9">
+        <v>45</v>
+      </c>
+      <c r="Z40" s="9">
+        <v>22</v>
+      </c>
+      <c r="AA40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="9">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="AC40" s="9">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="AD40" s="8">
         <f t="shared" si="12"/>
-        <v>45.122</v>
-      </c>
-      <c r="Z40" s="9">
-        <f t="shared" si="13"/>
-        <v>13.706</v>
-      </c>
-      <c r="AA40" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="9">
-        <f t="shared" si="14"/>
-        <v>45.122</v>
-      </c>
-      <c r="AC40" s="9">
-        <f t="shared" si="15"/>
-        <v>13.706</v>
-      </c>
-      <c r="AD40" s="8">
-        <f t="shared" si="16"/>
-        <v>81.473700000000008</v>
+        <v>93.75</v>
       </c>
       <c r="AE40" s="8"/>
       <c r="AF40" s="9">
-        <f t="shared" si="17"/>
-        <v>58.828000000000003</v>
+        <f t="shared" si="13"/>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
@@ -5227,13 +5214,13 @@
         <v>1</v>
       </c>
       <c r="S41">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T41">
         <v>0</v>
       </c>
       <c r="U41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V41">
         <v>96.69</v>
@@ -5241,34 +5228,34 @@
       <c r="W41">
         <v>29.369999999999997</v>
       </c>
-      <c r="X41" s="12"/>
+      <c r="X41">
+        <v>0</v>
+      </c>
       <c r="Y41" s="9">
+        <v>95</v>
+      </c>
+      <c r="Z41" s="9">
+        <v>35</v>
+      </c>
+      <c r="AA41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="9">
+        <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
+      <c r="AC41" s="9">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="AD41" s="8">
         <f t="shared" si="12"/>
-        <v>96.69</v>
-      </c>
-      <c r="Z41" s="9">
-        <f t="shared" si="13"/>
-        <v>29.369999999999997</v>
-      </c>
-      <c r="AA41" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="9">
-        <f t="shared" si="14"/>
-        <v>96.69</v>
-      </c>
-      <c r="AC41" s="9">
-        <f t="shared" si="15"/>
-        <v>29.369999999999997</v>
-      </c>
-      <c r="AD41" s="8">
-        <f t="shared" si="16"/>
-        <v>174.5865</v>
+        <v>180.75</v>
       </c>
       <c r="AE41" s="8"/>
       <c r="AF41" s="9">
-        <f t="shared" si="17"/>
-        <v>126.06</v>
+        <f t="shared" si="13"/>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
@@ -5334,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42">
         <v>54.497999999999998</v>
@@ -5342,34 +5329,34 @@
       <c r="W42">
         <v>16.553999999999998</v>
       </c>
-      <c r="X42" s="11"/>
+      <c r="X42" s="7">
+        <v>0</v>
+      </c>
       <c r="Y42" s="9">
+        <v>54</v>
+      </c>
+      <c r="Z42" s="9">
+        <v>23</v>
+      </c>
+      <c r="AA42" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="AB42" s="9">
+        <f t="shared" si="10"/>
+        <v>40.5</v>
+      </c>
+      <c r="AC42" s="9">
+        <f t="shared" si="11"/>
+        <v>36.5</v>
+      </c>
+      <c r="AD42" s="8">
         <f t="shared" si="12"/>
-        <v>54.497999999999998</v>
-      </c>
-      <c r="Z42" s="9">
-        <f t="shared" si="13"/>
-        <v>16.553999999999998</v>
-      </c>
-      <c r="AA42" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="AB42" s="9">
-        <f t="shared" si="14"/>
-        <v>40.8735</v>
-      </c>
-      <c r="AC42" s="9">
-        <f t="shared" si="15"/>
-        <v>30.1785</v>
-      </c>
-      <c r="AD42" s="8">
-        <f t="shared" si="16"/>
-        <v>98.403300000000002</v>
+        <v>107.4</v>
       </c>
       <c r="AE42" s="8"/>
       <c r="AF42" s="9">
-        <f t="shared" si="17"/>
-        <v>71.051999999999992</v>
+        <f t="shared" si="13"/>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
@@ -5435,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -5443,34 +5430,34 @@
       <c r="W43">
         <v>0</v>
       </c>
-      <c r="X43" s="11"/>
+      <c r="X43" s="7">
+        <v>0</v>
+      </c>
       <c r="Y43" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="9">
+        <v>9</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AB43" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="9">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AD43" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z43" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="AB43" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE43" s="8"/>
       <c r="AF43" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.35">
@@ -5536,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -5544,34 +5531,34 @@
       <c r="W44">
         <v>0</v>
       </c>
-      <c r="X44" s="11"/>
+      <c r="X44" s="7">
+        <v>0</v>
+      </c>
       <c r="Y44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA44" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AB44" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="9">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AD44" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z44" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="AB44" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC44" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD44" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE44" s="8"/>
       <c r="AF44" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.35">
@@ -5631,13 +5618,13 @@
         <v>1</v>
       </c>
       <c r="S45">
-        <v>2.8800000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T45">
         <v>0</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -5645,34 +5632,34 @@
       <c r="W45">
         <v>0</v>
       </c>
-      <c r="X45" s="11"/>
+      <c r="X45" s="7">
+        <v>0</v>
+      </c>
       <c r="Y45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="9">
+        <v>9</v>
+      </c>
+      <c r="AA45" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AB45" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="9">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AD45" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z45" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA45" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="AB45" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD45" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE45" s="8"/>
       <c r="AF45" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.35">
@@ -5738,7 +5725,7 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46">
         <v>96.69</v>
@@ -5746,34 +5733,34 @@
       <c r="W46">
         <v>29.369999999999997</v>
       </c>
-      <c r="X46" s="11"/>
+      <c r="X46" s="7">
+        <v>0</v>
+      </c>
       <c r="Y46" s="9">
+        <v>80</v>
+      </c>
+      <c r="Z46" s="9">
+        <v>25</v>
+      </c>
+      <c r="AA46" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AB46" s="9">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="AC46" s="9">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="AD46" s="8">
         <f t="shared" si="12"/>
-        <v>96.69</v>
-      </c>
-      <c r="Z46" s="9">
-        <f t="shared" si="13"/>
-        <v>29.369999999999997</v>
-      </c>
-      <c r="AA46" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="AB46" s="9">
-        <f t="shared" si="14"/>
-        <v>48.344999999999999</v>
-      </c>
-      <c r="AC46" s="9">
-        <f t="shared" si="15"/>
-        <v>77.715000000000003</v>
-      </c>
-      <c r="AD46" s="8">
-        <f t="shared" si="16"/>
-        <v>174.5865</v>
+        <v>145.5</v>
       </c>
       <c r="AE46" s="8"/>
       <c r="AF46" s="9">
-        <f t="shared" si="17"/>
-        <v>126.06</v>
+        <f t="shared" si="13"/>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.35">
@@ -5833,13 +5820,13 @@
         <v>1</v>
       </c>
       <c r="S47">
-        <v>3.8400000000000001E-4</v>
+        <v>2.9099999999999999E-5</v>
       </c>
       <c r="T47">
         <v>0</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V47">
         <v>84.97</v>
@@ -5847,34 +5834,34 @@
       <c r="W47">
         <v>25.81</v>
       </c>
-      <c r="X47" s="11"/>
+      <c r="X47" s="7">
+        <v>0</v>
+      </c>
       <c r="Y47" s="9">
+        <v>84</v>
+      </c>
+      <c r="Z47" s="9">
+        <v>30</v>
+      </c>
+      <c r="AA47" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AB47" s="9">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="AC47" s="9">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="AD47" s="8">
         <f t="shared" si="12"/>
-        <v>84.97</v>
-      </c>
-      <c r="Z47" s="9">
-        <f t="shared" si="13"/>
-        <v>25.81</v>
-      </c>
-      <c r="AA47" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="AB47" s="9">
-        <f t="shared" si="14"/>
-        <v>42.484999999999999</v>
-      </c>
-      <c r="AC47" s="9">
-        <f t="shared" si="15"/>
-        <v>68.295000000000002</v>
-      </c>
-      <c r="AD47" s="8">
-        <f t="shared" si="16"/>
-        <v>153.42449999999999</v>
+        <v>158.4</v>
       </c>
       <c r="AE47" s="8"/>
       <c r="AF47" s="9">
-        <f t="shared" si="17"/>
-        <v>110.78</v>
+        <f t="shared" si="13"/>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.35">
@@ -5948,34 +5935,34 @@
       <c r="W48">
         <v>4.6280000000000001</v>
       </c>
-      <c r="X48" s="11"/>
+      <c r="X48" s="7">
+        <v>0</v>
+      </c>
       <c r="Y48" s="9">
+        <v>13</v>
+      </c>
+      <c r="Z48" s="9">
+        <v>14</v>
+      </c>
+      <c r="AA48" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AB48" s="9">
+        <f t="shared" si="10"/>
+        <v>6.5</v>
+      </c>
+      <c r="AC48" s="9">
+        <f t="shared" si="11"/>
+        <v>20.5</v>
+      </c>
+      <c r="AD48" s="8">
         <f t="shared" si="12"/>
-        <v>15.235999999999999</v>
-      </c>
-      <c r="Z48" s="9">
-        <f t="shared" si="13"/>
-        <v>4.6280000000000001</v>
-      </c>
-      <c r="AA48" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="AB48" s="9">
-        <f t="shared" si="14"/>
-        <v>7.6179999999999994</v>
-      </c>
-      <c r="AC48" s="9">
-        <f t="shared" si="15"/>
-        <v>12.245999999999999</v>
-      </c>
-      <c r="AD48" s="8">
-        <f t="shared" si="16"/>
-        <v>27.5106</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="AE48" s="8"/>
       <c r="AF48" s="9">
-        <f t="shared" si="17"/>
-        <v>19.863999999999997</v>
+        <f t="shared" si="13"/>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
@@ -6049,34 +6036,34 @@
       <c r="W49">
         <v>0</v>
       </c>
-      <c r="X49" s="11"/>
+      <c r="X49" s="7">
+        <v>0</v>
+      </c>
       <c r="Y49" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA49" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="AB49" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="9">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AD49" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z49" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA49" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="AB49" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD49" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE49" s="8"/>
       <c r="AF49" s="9">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.35">
@@ -6147,33 +6134,29 @@
       <c r="W50" s="6">
         <v>0</v>
       </c>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="9">
+      <c r="X50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z50" s="9">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AA50" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AC50" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AD50" s="8">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE50" s="8"/>
       <c r="AF50" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -6248,34 +6231,34 @@
       <c r="W51">
         <v>14.952</v>
       </c>
-      <c r="X51" s="12"/>
+      <c r="X51">
+        <v>0</v>
+      </c>
       <c r="Y51" s="9">
+        <v>46</v>
+      </c>
+      <c r="Z51" s="9">
+        <v>22</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="9">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="AC51" s="9">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="AD51" s="8">
         <f t="shared" si="12"/>
-        <v>49.223999999999997</v>
-      </c>
-      <c r="Z51" s="9">
-        <f t="shared" si="13"/>
-        <v>14.952</v>
-      </c>
-      <c r="AA51" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="9">
-        <f t="shared" si="14"/>
-        <v>49.223999999999997</v>
-      </c>
-      <c r="AC51" s="9">
-        <f t="shared" si="15"/>
-        <v>14.952</v>
-      </c>
-      <c r="AD51" s="8">
-        <f t="shared" si="16"/>
-        <v>88.880399999999995</v>
+        <v>95.1</v>
       </c>
       <c r="AE51" s="8"/>
       <c r="AF51" s="9">
-        <f t="shared" si="17"/>
-        <v>64.176000000000002</v>
+        <f t="shared" si="13"/>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.35">
@@ -6349,34 +6332,34 @@
       <c r="W52">
         <v>8.3659999999999997</v>
       </c>
-      <c r="X52" s="12"/>
+      <c r="X52">
+        <v>0</v>
+      </c>
       <c r="Y52" s="9">
+        <v>27</v>
+      </c>
+      <c r="Z52" s="9">
+        <v>17</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="9">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="AC52" s="9">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="AD52" s="8">
         <f t="shared" si="12"/>
-        <v>27.541999999999998</v>
-      </c>
-      <c r="Z52" s="9">
-        <f t="shared" si="13"/>
-        <v>8.3659999999999997</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="9">
-        <f t="shared" si="14"/>
-        <v>27.541999999999998</v>
-      </c>
-      <c r="AC52" s="9">
-        <f t="shared" si="15"/>
-        <v>8.3659999999999997</v>
-      </c>
-      <c r="AD52" s="8">
-        <f t="shared" si="16"/>
-        <v>49.730699999999999</v>
+        <v>61.95</v>
       </c>
       <c r="AE52" s="8"/>
       <c r="AF52" s="9">
-        <f t="shared" si="17"/>
-        <v>35.908000000000001</v>
+        <f t="shared" si="13"/>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.35">
@@ -6450,479 +6433,184 @@
       <c r="W53">
         <v>22.25</v>
       </c>
-      <c r="X53" s="11"/>
+      <c r="X53" s="7">
+        <v>0</v>
+      </c>
       <c r="Y53" s="9">
+        <v>71</v>
+      </c>
+      <c r="Z53" s="9">
+        <v>28</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="9">
+        <f t="shared" si="10"/>
+        <v>71</v>
+      </c>
+      <c r="AC53" s="9">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="AD53" s="8">
         <f t="shared" si="12"/>
-        <v>73.25</v>
-      </c>
-      <c r="Z53" s="9">
-        <f t="shared" si="13"/>
-        <v>22.25</v>
-      </c>
-      <c r="AA53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="9">
-        <f t="shared" si="14"/>
-        <v>73.25</v>
-      </c>
-      <c r="AC53" s="9">
-        <f t="shared" si="15"/>
-        <v>22.25</v>
-      </c>
-      <c r="AD53" s="8">
-        <f t="shared" si="16"/>
-        <v>132.26249999999999</v>
+        <v>137.85000000000002</v>
       </c>
       <c r="AE53" s="8"/>
       <c r="AF53" s="9">
-        <f t="shared" si="17"/>
-        <v>95.5</v>
+        <f t="shared" si="13"/>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="13"/>
-      <c r="Z54" s="13"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
       <c r="AA54" s="10"/>
-      <c r="AB54" s="13"/>
-      <c r="AC54" s="13"/>
-      <c r="AD54" s="13"/>
-      <c r="AE54" s="13"/>
-      <c r="AF54" s="13"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
       <c r="AA55" s="10"/>
-      <c r="AB55" s="13"/>
-      <c r="AC55" s="13"/>
-      <c r="AD55" s="13"/>
-      <c r="AE55" s="13"/>
-      <c r="AF55" s="13"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="9"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
       <c r="AA56" s="10"/>
-      <c r="AB56" s="13"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="13"/>
-      <c r="AE56" s="13"/>
-      <c r="AF56" s="13"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
       <c r="AA57" s="10"/>
-      <c r="AB57" s="13"/>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="13"/>
-      <c r="AE57" s="13"/>
-      <c r="AF57" s="13"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
       <c r="AA58" s="10"/>
-      <c r="AB58" s="13"/>
-      <c r="AC58" s="13"/>
-      <c r="AD58" s="13"/>
-      <c r="AE58" s="13"/>
-      <c r="AF58" s="13"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="12"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="13"/>
-      <c r="Z59" s="13"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
       <c r="AA59" s="10"/>
-      <c r="AB59" s="13"/>
-      <c r="AC59" s="13"/>
-      <c r="AD59" s="13"/>
-      <c r="AE59" s="13"/>
-      <c r="AF59" s="13"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="9"/>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
-      <c r="V60" s="12"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="13"/>
-      <c r="Z60" s="13"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
       <c r="AA60" s="10"/>
-      <c r="AB60" s="13"/>
-      <c r="AC60" s="13"/>
-      <c r="AD60" s="13"/>
-      <c r="AE60" s="13"/>
-      <c r="AF60" s="13"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="9"/>
+      <c r="AF60" s="9"/>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="12"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="11"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="13"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
       <c r="AA61" s="10"/>
-      <c r="AB61" s="13"/>
-      <c r="AC61" s="13"/>
-      <c r="AD61" s="13"/>
-      <c r="AE61" s="13"/>
-      <c r="AF61" s="13"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="13"/>
-      <c r="Z62" s="13"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
       <c r="AA62" s="10"/>
-      <c r="AB62" s="13"/>
-      <c r="AC62" s="13"/>
-      <c r="AD62" s="13"/>
-      <c r="AE62" s="13"/>
-      <c r="AF62" s="13"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="9"/>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="11"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="13"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
       <c r="AA63" s="10"/>
-      <c r="AB63" s="13"/>
-      <c r="AC63" s="13"/>
-      <c r="AD63" s="13"/>
-      <c r="AE63" s="13"/>
-      <c r="AF63" s="13"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
-      <c r="W64" s="12"/>
-      <c r="X64" s="11"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
       <c r="AA64" s="10"/>
-      <c r="AB64" s="13"/>
-      <c r="AC64" s="13"/>
-      <c r="AD64" s="13"/>
-      <c r="AE64" s="13"/>
-      <c r="AF64" s="13"/>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="13"/>
-      <c r="X65" s="11"/>
-      <c r="Y65" s="13"/>
-      <c r="Z65" s="13"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="9"/>
+    </row>
+    <row r="65" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
       <c r="AA65" s="10"/>
-      <c r="AB65" s="13"/>
-      <c r="AC65" s="13"/>
-      <c r="AD65" s="13"/>
-      <c r="AE65" s="13"/>
-      <c r="AF65" s="13"/>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
-      <c r="V66" s="13"/>
-      <c r="W66" s="13"/>
-      <c r="X66" s="11"/>
-      <c r="Y66" s="13"/>
-      <c r="Z66" s="13"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+      <c r="AF65" s="9"/>
+    </row>
+    <row r="66" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
       <c r="AA66" s="10"/>
-      <c r="AB66" s="13"/>
-      <c r="AC66" s="13"/>
-      <c r="AD66" s="13"/>
-      <c r="AE66" s="13"/>
-      <c r="AF66" s="13"/>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
+      <c r="AE66" s="9"/>
+      <c r="AF66" s="9"/>
+    </row>
+    <row r="67" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
       <c r="X67" s="7"/>
@@ -6935,7 +6623,7 @@
       <c r="AE67" s="9"/>
       <c r="AF67" s="9"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="7:32" x14ac:dyDescent="0.35">
       <c r="G68" s="1"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
@@ -6948,7 +6636,7 @@
       <c r="AE68" s="9"/>
       <c r="AF68" s="9"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="69" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="7"/>
@@ -6961,7 +6649,7 @@
       <c r="AE69" s="9"/>
       <c r="AF69" s="9"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="70" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="7"/>
@@ -6974,7 +6662,7 @@
       <c r="AE70" s="9"/>
       <c r="AF70" s="9"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="71" spans="7:32" x14ac:dyDescent="0.35">
       <c r="G71" s="1"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
@@ -6987,7 +6675,7 @@
       <c r="AE71" s="9"/>
       <c r="AF71" s="9"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="72" spans="7:32" x14ac:dyDescent="0.35">
       <c r="G72" s="1"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
@@ -7000,7 +6688,7 @@
       <c r="AE72" s="9"/>
       <c r="AF72" s="9"/>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="73" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="7"/>
@@ -7013,7 +6701,7 @@
       <c r="AE73" s="9"/>
       <c r="AF73" s="9"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="74" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V74" s="9"/>
       <c r="W74" s="9"/>
       <c r="X74" s="7"/>
@@ -7026,7 +6714,7 @@
       <c r="AE74" s="9"/>
       <c r="AF74" s="9"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="75" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="7"/>
@@ -7039,7 +6727,7 @@
       <c r="AE75" s="9"/>
       <c r="AF75" s="9"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="76" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="7"/>
@@ -7051,7 +6739,7 @@
       <c r="AE76" s="9"/>
       <c r="AF76" s="9"/>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="77" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="7"/>
@@ -7063,7 +6751,7 @@
       <c r="AE77" s="9"/>
       <c r="AF77" s="9"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="78" spans="7:32" x14ac:dyDescent="0.35">
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="7"/>
@@ -7075,7 +6763,7 @@
       <c r="AE78" s="9"/>
       <c r="AF78" s="9"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="79" spans="7:32" x14ac:dyDescent="0.35">
       <c r="X79" s="7"/>
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
@@ -7085,7 +6773,7 @@
       <c r="AE79" s="9"/>
       <c r="AF79" s="9"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="80" spans="7:32" x14ac:dyDescent="0.35">
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
       <c r="AB80" s="9"/>
